--- a/biology/Zoologie/Catopsilia_scylla/Catopsilia_scylla.xlsx
+++ b/biology/Zoologie/Catopsilia_scylla/Catopsilia_scylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catopsilia scylla est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Catopsilia.
 </t>
@@ -511,86 +523,92 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Catopsilia scylla a été nommé par Carl von Linné en 1763.
-Noms vernaculaires
-Ce papillon se nomme en anglais Orange Emigrant ou Yellow Migrant.
-Sous-espèces
-Catopsilia scylla scylla à Java et Bali.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catopsilia scylla a été nommé par Carl von Linné en 1763.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se nomme en anglais Orange Emigrant ou Yellow Migrant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Catopsilia scylla scylla à Java et Bali.
 Catopsilia scylla asema (Staudinger)
 Catopsilia scylla bangkeiana (Fruhstorfer)
 Catopsilia scylla cornelia (Fabricius, 1787) en Malaisie et à Sumatra.
 Catopsilia scylla etesia (Hewitson, 1867) dans le nord de l'Australie.
 Catopsilia scylla moluccarum Fruhstorfer, 1910 aux  Moluques.
 Catopsilia scylla praerubida (Fruhstorfer) à Florès.
-Catopsilia scylla sidra (Fruhstorfer) à Sumbawa[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Catopsilia_scylla</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catopsilia_scylla</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle et la femelle sont d'une couleur jaune, avec des ailes antérieures jaune pâle bordées de foncé et des ailes postérieures jaune orangé.
-Chenille
-La chenille est vert clair.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Catopsilia_scylla</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catopsilia_scylla</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un migrateur[2].
-Plantes hôtes
-Ce sont des Cassias, Cassia obtusifolia, Cassia biflora, Cassia tora, et Cassia fistula[1],[3].
-</t>
+Catopsilia scylla sidra (Fruhstorfer) à Sumbawa.</t>
         </is>
       </c>
     </row>
@@ -615,16 +633,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catopsilia scylla est présent en Birmanie, en Malaisie à Sumatra, à Java, Bali, aux  Moluques et dans le nord de l'Australie[1].
-Biotope
-Les régions chaudes où poussent les Cassias, plantes hôtes de sa chenille.
-Protection
-Pas de statut de protection particulier.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle et la femelle sont d'une couleur jaune, avec des ailes antérieures jaune pâle bordées de foncé et des ailes postérieures jaune orangé.
 </t>
         </is>
       </c>
@@ -650,12 +666,228 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est vert clair.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un migrateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des Cassias, Cassia obtusifolia, Cassia biflora, Cassia tora, et Cassia fistula,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catopsilia scylla est présent en Birmanie, en Malaisie à Sumatra, à Java, Bali, aux  Moluques et dans le nord de l'Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les régions chaudes où poussent les Cassias, plantes hôtes de sa chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_scylla</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon figure sur une émission de l'île de Jersey de 1995 (valeur faciale : 30 p.)[4].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon figure sur une émission de l'île de Jersey de 1995 (valeur faciale : 30 p.).
 </t>
         </is>
       </c>
